--- a/PCAstatic/PCAstatic_predicted_factors_matrix_11.xlsx
+++ b/PCAstatic/PCAstatic_predicted_factors_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:AU12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,132 @@
       <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -466,6 +592,132 @@
       <c r="E2" t="n">
         <v>-4.323419109431347</v>
       </c>
+      <c r="F2" t="n">
+        <v>-3.930294300658124</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-3.531031422606202</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-3.13399081178435</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-2.746145479013002</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-2.373196915067723</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-2.019678964282863</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-1.689061473982755</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-1.383853405662629</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-1.105705520103837</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-0.855512006411316</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-0.6335101452695472</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-0.4393769250096228</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-0.2723214992131666</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-0.131172450956957</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-0.01445898298029384</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.07951464581851143</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.1526018964053339</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.2067541786315488</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.2439685733662057</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.2662429149537496</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.2755379600221186</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.2737462595165433</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.2626672714966328</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.2439881990841495</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.2192700068475277</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.1899380557884938</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.1572767982867359</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.1224279867274834</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.08639187049797117</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.05003088349426547</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.01407535653149204</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-0.02086917529026454</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-0.05431346230146958</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-0.08587517991795388</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-0.1152690314938823</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>-0.1422965883516952</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>-0.1668361026469972</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-0.1888324919113795</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-0.208287659260727</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>-0.2252512807223417</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>-0.2398121611914993</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>-0.2520902333605218</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -483,6 +735,132 @@
       <c r="E3" t="n">
         <v>-1.135212267567727</v>
       </c>
+      <c r="F3" t="n">
+        <v>-1.082996925582362</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-1.020939224068479</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-0.9519018219885965</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.8783365245591075</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-0.8023274994840549</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.7256491453499304</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-0.6498064605849448</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-0.5760636874021167</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.5054646974195764</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-0.438848769880204</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-0.3768644420688427</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>-0.3199832349929473</v>
+      </c>
+      <c r="R3" t="n">
+        <v>-0.2685142520597235</v>
+      </c>
+      <c r="S3" t="n">
+        <v>-0.2226200053196915</v>
+      </c>
+      <c r="T3" t="n">
+        <v>-0.1823333618006315</v>
+      </c>
+      <c r="U3" t="n">
+        <v>-0.1475752175048531</v>
+      </c>
+      <c r="V3" t="n">
+        <v>-0.1181723736698026</v>
+      </c>
+      <c r="W3" t="n">
+        <v>-0.09387507308099623</v>
+      </c>
+      <c r="X3" t="n">
+        <v>-0.0743737149821086</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>-0.05931437030873114</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>-0.04831283658275926</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>-0.04096708433791248</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>-0.03686804295269919</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>-0.03560874835008686</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>-0.03679192793780856</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>-0.04003613197386987</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>-0.04498053911611679</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>-0.05128857135393308</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>-0.05865045350035866</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>-0.06678484788177463</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>-0.07543968792225092</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>-0.08439232636142825</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>-0.09344910565835657</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>-0.1024444500840603</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>-0.1112395711938335</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>-0.1197208707576083</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>-0.1277981177284349</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>-0.135402468370418</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>-0.1424843912135424</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>-0.1490115510666707</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>-0.1549666989564295</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>-0.1603456076542705</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -500,6 +878,132 @@
       <c r="E4" t="n">
         <v>0.09739946789589859</v>
       </c>
+      <c r="F4" t="n">
+        <v>0.1497637260847261</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.1841756177490748</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.2029455060057419</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.208225278996094</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.2020007282365899</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1860983582180788</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.1621953472292397</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.1318286281098519</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.09640152734074718</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.0571879234292373</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.01533461276895362</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-0.02813716448052505</v>
+      </c>
+      <c r="R4" t="n">
+        <v>-0.07233011709453704</v>
+      </c>
+      <c r="S4" t="n">
+        <v>-0.1164684876770325</v>
+      </c>
+      <c r="T4" t="n">
+        <v>-0.1598943675667073</v>
+      </c>
+      <c r="U4" t="n">
+        <v>-0.2020625463523146</v>
+      </c>
+      <c r="V4" t="n">
+        <v>-0.2425339279952207</v>
+      </c>
+      <c r="W4" t="n">
+        <v>-0.2809677124147792</v>
+      </c>
+      <c r="X4" t="n">
+        <v>-0.3171126428010556</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>-0.3507976611955309</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>-0.3819223106558397</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>-0.4104471864097024</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>-0.4363846848232412</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>-0.4597902392233216</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>-0.4807541738352448</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>-0.4993942563546597</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>-0.5158489883293503</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>-0.5302716409871261</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>-0.5428250215628608</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>-0.5536769400519755</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>-0.5629963369464529</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>-0.5709500272812479</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>-0.5777000138751418</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>-0.5834013219484129</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>-0.5882003076093019</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>-0.5922333935591886</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>-0.5956261865169945</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>-0.5984929321946288</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>-0.6009362651435437</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>-0.6030472124573532</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>-0.6049054121881595</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>-0.6065795094383197</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -517,6 +1021,132 @@
       <c r="E5" t="n">
         <v>0.05272308351212062</v>
       </c>
+      <c r="F5" t="n">
+        <v>0.2077049861106874</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.3216224907223668</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.4011495220353392</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.45216808180649</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.4798348057268293</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.4886499668821778</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.4825259660486006</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.4648508117509291</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.4385448061635597</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.4061100824609116</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.3696736261051293</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.3310248825923905</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.2916491732391201</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.252758030000275</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.2153173282490347</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.180073823916114</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.1475804437022306</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.1182204663447156</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.09223058256261525</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.06972273122122494</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.05070457088944217</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.03509844667366827</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.02275873861408813</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.01348751807241973</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.007048483047815635</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.003179185742674263</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.001601602131589958</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.002031122060057927</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.004184059312837082</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.007783794861830444</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.01256567429372409</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.01828078350445149</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.0246987263124572</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.03160952467156931</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.03882475741877811</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.04617804752819663</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.0535250010498645</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0.06074269356114154</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.06772879224153733</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0.07440039374630961</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0.0806926500239448</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0.08655724621116187</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -534,6 +1164,132 @@
       <c r="E6" t="n">
         <v>-0.09921319076530059</v>
       </c>
+      <c r="F6" t="n">
+        <v>-0.1470722392592887</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.1882008971812966</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0.2226059776186002</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.2504821586914937</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-0.2721413623554887</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-0.2879611840965549</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-0.2983558056979232</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-0.3037620072887299</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.3046340550241985</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-0.3014423350719976</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-0.2946721943063506</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>-0.2848209739794988</v>
+      </c>
+      <c r="R6" t="n">
+        <v>-0.2723925039451505</v>
+      </c>
+      <c r="S6" t="n">
+        <v>-0.2578892646458494</v>
+      </c>
+      <c r="T6" t="n">
+        <v>-0.2418030033664486</v>
+      </c>
+      <c r="U6" t="n">
+        <v>-0.2246048421552392</v>
+      </c>
+      <c r="V6" t="n">
+        <v>-0.2067359041935386</v>
+      </c>
+      <c r="W6" t="n">
+        <v>-0.1885992977837491</v>
+      </c>
+      <c r="X6" t="n">
+        <v>-0.1705540179763336</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>-0.1529110280651235</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>-0.1359315191641293</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>-0.1198271457346117</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>-0.1047619082111585</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>-0.09085529600443576</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>-0.07818630158072991</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>-0.06679795200804525</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>-0.05670206175240302</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>-0.04788397588688656</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>-0.04030713636985683</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>-0.03391735963704327</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>-0.02864675865718578</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>-0.02441727642089763</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>-0.02114382166135054</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>-0.01873701328567361</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>-0.01710554956544932</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>-0.01615822347304156</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>-0.01580560819381753</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>-0.01596143792651933</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>-0.01654370935928309</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>-0.01747552911911584</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>-0.01868573225083463</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>-0.02010929645211061</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -551,6 +1307,132 @@
       <c r="E7" t="n">
         <v>0.02469784883740599</v>
       </c>
+      <c r="F7" t="n">
+        <v>-0.009331711504800923</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-0.0399808744111233</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-0.06703282748559873</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.09045813917539329</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-0.110333039775183</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-0.126783620318649</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-0.1399539179594103</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-0.1499927272428575</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.1570529024449897</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-0.161297412823439</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-0.1629074893943511</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>-0.1620894439249254</v>
+      </c>
+      <c r="R7" t="n">
+        <v>-0.1590780383922858</v>
+      </c>
+      <c r="S7" t="n">
+        <v>-0.1541355301358692</v>
+      </c>
+      <c r="T7" t="n">
+        <v>-0.147546589990359</v>
+      </c>
+      <c r="U7" t="n">
+        <v>-0.1396100661612415</v>
+      </c>
+      <c r="V7" t="n">
+        <v>-0.1306289764726974</v>
+      </c>
+      <c r="W7" t="n">
+        <v>-0.1209001668233825</v>
+      </c>
+      <c r="X7" t="n">
+        <v>-0.1107048562857079</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>-0.1003009177325246</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>-0.08991733284966698</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>-0.07975089787471942</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>-0.06996498825919081</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>-0.06069002880465397</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>-0.05202524911487901</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>-0.04404130897125651</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>-0.03678342832733441</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>-0.03027472891217028</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>-0.02451957148856303</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>-0.01950674334334955</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>-0.01521240867571135</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>-0.01160277832850227</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>-0.008636485558256208</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>-0.006266673483854633</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>-0.004442810242992068</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>-0.003112252398815949</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>-0.002221578046296058</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>-0.001717710093227433</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>-0.001548848510517814</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>-0.001665228663382802</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>-0.002019721488320917</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>-0.002568290359490705</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -568,6 +1450,132 @@
       <c r="E8" t="n">
         <v>-0.05741439990455698</v>
       </c>
+      <c r="F8" t="n">
+        <v>-0.1383187556777547</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-0.2094446444507958</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-0.2701380203780849</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-0.3201457706338963</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-0.3595700854265303</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-0.3888123633400789</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-0.408511706179542</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-0.4194831032381981</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.4226590028850637</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-0.4190366674719098</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-0.4096327867740854</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>-0.3954461897643341</v>
+      </c>
+      <c r="R8" t="n">
+        <v>-0.3774289839256781</v>
+      </c>
+      <c r="S8" t="n">
+        <v>-0.3564659572170626</v>
+      </c>
+      <c r="T8" t="n">
+        <v>-0.3333615868214613</v>
+      </c>
+      <c r="U8" t="n">
+        <v>-0.3088335699493202</v>
+      </c>
+      <c r="V8" t="n">
+        <v>-0.2835115052080043</v>
+      </c>
+      <c r="W8" t="n">
+        <v>-0.2579392603007502</v>
+      </c>
+      <c r="X8" t="n">
+        <v>-0.2325796622632163</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>-0.2078203908660711</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>-0.1839802700350983</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>-0.1613154640006042</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>-0.1400253429747134</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>-0.1202579632690002</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>-0.1021152084005987</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>-0.08565767556942597</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>-0.07090938680055991</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>-0.05786237633329112</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>-0.04648117143393555</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>-0.03670715306566109</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>-0.02846276101231573</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>-0.02165549653206165</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>-0.01618167340311996</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>-0.01192987311265867</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>-0.008784069404195622</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>-0.006626399126283538</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>-0.005339568481170003</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>-0.004808895074094499</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>-0.004923995842374556</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>-0.005580138646812181</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>-0.006679280989240404</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>-0.00813082312991789</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -585,6 +1593,132 @@
       <c r="E9" t="n">
         <v>0.02075770486429215</v>
       </c>
+      <c r="F9" t="n">
+        <v>0.01763751745756552</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.01490763934264009</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.01252887119294289</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.01046333808365915</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.008680272372583469</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.007152229254456167</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.005854183621894563</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.004762841838249982</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.003856334836930551</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.003114096703383597</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.00251684887041885</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.00204662523142274</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.001686800749309285</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.001422104142042358</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.00123860782960816</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.00112369575445082</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.001066013349102903</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.001055405060092999</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.001082844502545935</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.001140361288953464</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.00122096735882567</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.001318584528912274</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.001427974125173901</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.001544668982584388</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.00166490778059024</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.001785571563983742</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.001904122315567505</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.00201854353744787</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.002127282912983814</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.002229197226771002</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.00232349979511912</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.002409710695857714</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.002487610084384569</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.002557194848831718</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.002618638800056383</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.002672256521504919</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.002718470928613512</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.002757784514335667</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0.002790754191591693</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0.002817969587940834</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0.002840034603889549</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0.002857552014001347</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -602,6 +1736,132 @@
       <c r="E10" t="n">
         <v>0.01620203779807966</v>
       </c>
+      <c r="F10" t="n">
+        <v>0.01121771947336241</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.007610923995384309</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.005098817174293545</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.003458697906576554</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.002499487250596011</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.002060900994360907</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.002008869796337326</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.002232414479663565</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.002640784121860998</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.003160885288655434</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.003734907659464402</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.004318136072757391</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.004876952514986647</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.005387036544632293</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.005831767568866358</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.006200824864484156</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.006488974254797743</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.006695025494339743</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.006820941976101769</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.00687108402477391</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.006851568167529414</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.006769726748855711</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.006633654545513002</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.006451831259197632</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.006232810686901688</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.00598496888990181</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.005716304794955843</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.005434287419648987</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.005145744402705275</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.004856786831369173</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.004572765574762742</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.004298254519762412</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.004037056308809956</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.003792226421626095</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.003566111732991026</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.003360400012735266</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.003176177200689914</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.003013989674184523</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0.002873909114048296</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.002755597953959414</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0.002658373757072756</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0.002581271195850585</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -619,6 +1879,132 @@
       <c r="E11" t="n">
         <v>0.01021964997071699</v>
       </c>
+      <c r="F11" t="n">
+        <v>0.01173828928894116</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.01272358894474792</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.01324550122639431</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.01337639501113976</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.01318310054078238</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.01272755343715034</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.01206619450701645</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.01124974468137441</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.01032307726881693</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.009325260660662204</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.008289747583230936</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.007244683477914193</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.006213297921786864</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.005214344653815421</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.00426256109479731</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.003369125364855921</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.002542095860922523</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.001786824497014749</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.001106339317317132</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.000501695342301894</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>-2.770560183417294e-05</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>-0.000483824396136968</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>-0.0008697215443049728</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>-0.001189319670850781</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>-0.00144719007534307</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>-0.001648362133283219</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>-0.001798154586845568</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>-0.001902027916635662</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>-0.001965457023984536</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>-0.001993823399594147</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>-0.00199232583734902</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>-0.001965908603200921</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>-0.001919205816599559</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>-0.001856500668083082</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>-0.001781697996043184</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>-0.001698308685934368</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>-0.001609444337920554</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>-0.001517820671386955</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>-0.001425768191352451</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>-0.001335248725608033</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>-0.001247876545111674</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>-0.001164942896934076</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -635,6 +2021,132 @@
       </c>
       <c r="E12" t="n">
         <v>0.01652189293462539</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.008128547296548548</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.001166864632204071</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-0.004498090047225948</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-0.009001974231530417</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-0.01247355059873733</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-0.01503663166277111</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-0.01680926414746757</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-0.01790301248090915</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.01842218539649898</v>
+      </c>
+      <c r="O12" t="n">
+        <v>-0.01846321695470428</v>
+      </c>
+      <c r="P12" t="n">
+        <v>-0.01811425371279861</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>-0.01745496514559388</v>
+      </c>
+      <c r="R12" t="n">
+        <v>-0.01655656002535659</v>
+      </c>
+      <c r="S12" t="n">
+        <v>-0.01548197551905218</v>
+      </c>
+      <c r="T12" t="n">
+        <v>-0.01428619997744139</v>
+      </c>
+      <c r="U12" t="n">
+        <v>-0.01301669169109707</v>
+      </c>
+      <c r="V12" t="n">
+        <v>-0.01171386096387708</v>
+      </c>
+      <c r="W12" t="n">
+        <v>-0.01041158940550484</v>
+      </c>
+      <c r="X12" t="n">
+        <v>-0.009137766847205587</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>-0.007914831892190374</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>-0.00676030647974084</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>-0.005687317954005412</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>-0.004705104163428783</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>-0.003819498334678499</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>-0.003033391136831162</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>-0.00234716771422945</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>-0.001759117701114415</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>-0.001265816458732198</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>-0.0008624760620782167</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>-0.0005432649310996672</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>-0.0003015954419865691</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>-0.0001303793423655351</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>-2.225129675641484e-05</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>3.023862692570442e-05</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>3.446227991688771e-05</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>-2.421060090686505e-06</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>-7.357291958128009e-05</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>-0.0001725597390962652</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>-0.0002934151446004663</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>-0.0004306827322047347</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>-0.0005794417253583923</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>-0.0007353178186697835</v>
       </c>
     </row>
   </sheetData>

--- a/PCAstatic/PCAstatic_predicted_factors_matrix_11.xlsx
+++ b/PCAstatic/PCAstatic_predicted_factors_matrix_11.xlsx
@@ -443,90 +443,90 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-5.63668011438422</v>
+        <v>-1.424162578769611</v>
       </c>
       <c r="B2" t="n">
-        <v>-5.36636038661274</v>
+        <v>-1.198522772179335</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-1.042884936845275</v>
+        <v>-0.5057079730326717</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.170715555161617</v>
+        <v>-0.6420498416640553</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.3545509457046398</v>
+        <v>-1.013046306723271</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.1959606513534617</v>
+        <v>-0.8410514762832513</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-1.14632732580582</v>
+        <v>-0.6828727062496047</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.7370249238913222</v>
+        <v>-0.6303883927931225</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.09653254373334705</v>
+        <v>0.7875261515105614</v>
       </c>
       <c r="B6" t="n">
-        <v>0.08094923444374726</v>
+        <v>0.6580043566388356</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.2083783287053444</v>
+        <v>-0.0571354271481056</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1352289301503601</v>
+        <v>0.03761864856576854</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.3412560005081211</v>
+        <v>0.7912943027795505</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2290382506391178</v>
+        <v>0.6281679907776393</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.1016149879557753</v>
+        <v>0.3112836423539164</v>
       </c>
       <c r="B9" t="n">
-        <v>0.02609084844795538</v>
+        <v>0.3070251088279945</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.006574752566973041</v>
+        <v>-0.1719813660414985</v>
       </c>
       <c r="B10" t="n">
-        <v>0.03935622243898602</v>
+        <v>-0.03037523851566397</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.01789180138249652</v>
+        <v>-0.3386736403781795</v>
       </c>
       <c r="B11" t="n">
-        <v>0.001874031833065366</v>
+        <v>-0.2031843532881114</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.04903091836860865</v>
+        <v>-0.5213529365701333</v>
       </c>
       <c r="B12" t="n">
-        <v>0.05057656493292192</v>
+        <v>-0.2698494583595496</v>
       </c>
     </row>
   </sheetData>

--- a/PCAstatic/PCAstatic_predicted_factors_matrix_11.xlsx
+++ b/PCAstatic/PCAstatic_predicted_factors_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,13 +440,115 @@
       <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>-1.424162578769611</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.198522772179335</v>
+        <v>-111.0857134903333</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2508.820260717697</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-881560.5966837989</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-284186065.9067274</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-78041971716.4841</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-23081624380209.93</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-6841024126260361</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-2.00470634092772e+18</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-5.676435659735085e+20</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-1.539582217638885e+23</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-4.033446756032889e+25</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-1.031732975584062e+28</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-2.604465367243178e+30</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-6.507429304813735e+32</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-1.609950772248028e+35</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-3.956064674527147e+37</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-9.692646518324698e+39</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-2.374140850203688e+42</v>
       </c>
     </row>
     <row r="3">
@@ -454,7 +556,58 @@
         <v>-0.5057079730326717</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.6420498416640553</v>
+        <v>-84.80418499317096</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-18548.82161680547</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-3209206.506303353</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-605166666.8158982</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-121006373736.8226</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-24769279374759.41</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-4832264648828331</v>
+      </c>
+      <c r="I3" t="n">
+        <v>9.323942569354532e+17</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.776291556788396e+20</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.312167828296007e+22</v>
+      </c>
+      <c r="L3" t="n">
+        <v>5.946397890237558e+24</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.001434567049953e+27</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.517602721571277e+29</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.931885657216305e+31</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.78654889964196e+33</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>6.34686774292754e+34</v>
+      </c>
+      <c r="R3" t="n">
+        <v>-1.25250377886211e+37</v>
+      </c>
+      <c r="S3" t="n">
+        <v>-2.963870463420063e+39</v>
       </c>
     </row>
     <row r="4">
@@ -462,7 +615,58 @@
         <v>-1.013046306723271</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.8410514762832513</v>
+        <v>-14.73485509617618</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-2747.62980630583</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-457006.5424501111</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-85685051.99891344</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-18608172971.12491</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-4337889828341.306</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-768323053277891.4</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-1.35325895757511e+17</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-2.199264351537413e+19</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-3.015039915876655e+21</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-2.945815842981287e+23</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-6.392354543201634e+24</v>
+      </c>
+      <c r="N4" t="n">
+        <v>4.112615047839163e+27</v>
+      </c>
+      <c r="O4" t="n">
+        <v>8.297413367708892e+29</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.232112382840091e+32</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.008934477378218e+34</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3.596743401749607e+36</v>
+      </c>
+      <c r="S4" t="n">
+        <v>7.030381851098989e+38</v>
       </c>
     </row>
     <row r="5">
@@ -470,7 +674,58 @@
         <v>-0.6828727062496047</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.6303883927931225</v>
+        <v>65.25038964548861</v>
+      </c>
+      <c r="C5" t="n">
+        <v>8646.200084511502</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1113296.000564569</v>
+      </c>
+      <c r="E5" t="n">
+        <v>215753277.4127809</v>
+      </c>
+      <c r="F5" t="n">
+        <v>43014919958.76423</v>
+      </c>
+      <c r="G5" t="n">
+        <v>8426381186740.188</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1530047345709723</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.633005172131557e+17</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4.118229701362369e+19</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-5.537400973449659e+21</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-5.924721854379285e+23</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-4.853054878095946e+25</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-4.807487785393925e+27</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-7.882769206426863e+29</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-1.28434263816921e+32</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-2.145606426919193e+34</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-3.786363870158892e+36</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-6.972882442196538e+38</v>
       </c>
     </row>
     <row r="6">
@@ -478,7 +733,58 @@
         <v>0.7875261515105614</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6580043566388356</v>
+        <v>-8.058969965954587</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-1468.712095547635</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-890585.778561931</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-127537190.7194469</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-16558806555.05865</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-1851652879286.555</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-126772818265003.8</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-436752485433791.4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.100690528657945e+18</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.548846087417958e+20</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.007350752816671e+22</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2.536964485737381e+24</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.335712240722081e+26</v>
+      </c>
+      <c r="O6" t="n">
+        <v>4.164523440372199e+28</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4.589622275161081e+30</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4.895884865778062e+32</v>
+      </c>
+      <c r="R6" t="n">
+        <v>6.143342525505377e+34</v>
+      </c>
+      <c r="S6" t="n">
+        <v>9.810306748716543e+36</v>
       </c>
     </row>
     <row r="7">
@@ -486,7 +792,58 @@
         <v>-0.0571354271481056</v>
       </c>
       <c r="B7" t="n">
-        <v>0.03761864856576854</v>
+        <v>8.693590568954347</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3629.92388331985</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-762595.6687132457</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-127892908.4457275</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-19717960373.14773</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-2732501239351.155</v>
+      </c>
+      <c r="H7" t="n">
+        <v>292740592706433.4</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.708339923944321e+16</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4.493689461541633e+17</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4.340485741975206e+19</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.050630214802339e+21</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.616616922250132e+23</v>
+      </c>
+      <c r="N7" t="n">
+        <v>4.303537486431202e+25</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.664153427696507e+28</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4.321607421200406e+30</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>8.94371904640882e+32</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.595113901067257e+35</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2.623891681785804e+37</v>
       </c>
     </row>
     <row r="8">
@@ -494,7 +851,58 @@
         <v>0.7912943027795505</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6281679907776393</v>
+        <v>54.07984466854511</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6467.595434011737</v>
+      </c>
+      <c r="D8" t="n">
+        <v>784505.8028799288</v>
+      </c>
+      <c r="E8" t="n">
+        <v>121198187.1435526</v>
+      </c>
+      <c r="F8" t="n">
+        <v>17218916431.70815</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1932719026711.717</v>
+      </c>
+      <c r="H8" t="n">
+        <v>122199674233301.5</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4254125146873115</v>
+      </c>
+      <c r="J8" t="n">
+        <v>5.570297418886852e+17</v>
+      </c>
+      <c r="K8" t="n">
+        <v>7.917042475345427e+19</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.112381655628779e+22</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.556433958124098e+24</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.147778741313058e+26</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2.780399305615956e+28</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.406168149640554e+30</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4.278642097195814e+32</v>
+      </c>
+      <c r="R8" t="n">
+        <v>6.010231646135643e+34</v>
+      </c>
+      <c r="S8" t="n">
+        <v>9.406507066586451e+36</v>
       </c>
     </row>
     <row r="9">
@@ -502,7 +910,58 @@
         <v>0.3112836423539164</v>
       </c>
       <c r="B9" t="n">
-        <v>0.3070251088279945</v>
+        <v>-20.06792897408674</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2128.798096328836</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-405151.8863418917</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-46568106.30316044</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-855270384.6979815</v>
+      </c>
+      <c r="G9" t="n">
+        <v>24265989319.05121</v>
+      </c>
+      <c r="H9" t="n">
+        <v>6732449667959.916</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1041121943665144</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.805051499654125e+17</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.668610208990289e+19</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3.707930489479888e+21</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4.815997497127436e+23</v>
+      </c>
+      <c r="N9" t="n">
+        <v>5.890526331459698e+25</v>
+      </c>
+      <c r="O9" t="n">
+        <v>6.970603402128334e+27</v>
+      </c>
+      <c r="P9" t="n">
+        <v>8.088421782462319e+29</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>9.623211324298278e+31</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.252608368305121e+34</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.764041204363242e+36</v>
       </c>
     </row>
     <row r="10">
@@ -510,7 +969,58 @@
         <v>-0.1719813660414985</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.03037523851566397</v>
+        <v>19.42278089684391</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1611.056441657294</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-176683.9002809588</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-11090871.87956898</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-4763862429.734202</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-222218855326.5323</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-21175589335415.78</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-1490532202290349</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-9.751344329500366e+16</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-4.398152774614212e+18</v>
+      </c>
+      <c r="L10" t="n">
+        <v>5.281115955679706e+20</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.805861467131569e+23</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.139477375636913e+25</v>
+      </c>
+      <c r="O10" t="n">
+        <v>4.764326377505642e+27</v>
+      </c>
+      <c r="P10" t="n">
+        <v>7.05243706637577e+29</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.000070423700433e+32</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.362090305550495e+34</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.810693805418481e+36</v>
       </c>
     </row>
     <row r="11">
@@ -518,7 +1028,58 @@
         <v>-0.3386736403781795</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.2031843532881114</v>
+        <v>-1.511778322645382</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-938.5754491157314</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-224498.4809765997</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-24363351.92698508</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-738474638.3618073</v>
+      </c>
+      <c r="G11" t="n">
+        <v>18402625665.63091</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-3178837109141.708</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-419859459171987.1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-5.060583128617684e+16</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-5.366993578571995e+18</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-5.308503077243122e+20</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-4.952581456721698e+22</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-4.649451142087291e+24</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-4.721400609733757e+26</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-4.96255483041709e+28</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>-5.332171374085969e+30</v>
+      </c>
+      <c r="R11" t="n">
+        <v>-5.970553840353358e+32</v>
+      </c>
+      <c r="S11" t="n">
+        <v>-6.871295532334206e+34</v>
       </c>
     </row>
     <row r="12">
@@ -526,7 +1087,58 @@
         <v>-0.5213529365701333</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.2698494583595496</v>
+        <v>-6.411369832903513</v>
+      </c>
+      <c r="C12" t="n">
+        <v>262.3773581311003</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-2947.318071270819</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-3674242.026735398</v>
+      </c>
+      <c r="F12" t="n">
+        <v>337489243.2210635</v>
+      </c>
+      <c r="G12" t="n">
+        <v>16983448478.88065</v>
+      </c>
+      <c r="H12" t="n">
+        <v>939522606011.4193</v>
+      </c>
+      <c r="I12" t="n">
+        <v>51598540776115.78</v>
+      </c>
+      <c r="J12" t="n">
+        <v>9942870596875892</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.907949228615936e+18</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2.964303404174656e+20</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4.014760995577612e+22</v>
+      </c>
+      <c r="N12" t="n">
+        <v>4.993467321650458e+24</v>
+      </c>
+      <c r="O12" t="n">
+        <v>6.110562492770903e+26</v>
+      </c>
+      <c r="P12" t="n">
+        <v>7.411795940065388e+28</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>8.755793643979729e+30</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.007685384465129e+33</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.141089808434841e+35</v>
       </c>
     </row>
   </sheetData>
